--- a/biology/Botanique/Parc_naturel_de_Mazurie/Parc_naturel_de_Mazurie.xlsx
+++ b/biology/Botanique/Parc_naturel_de_Mazurie/Parc_naturel_de_Mazurie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc naturel de Mazurie ou parc paysager de Mazurie (en polonais : Mazurski Park Krajobrazowy), est un parc naturel de Pologne, situé dans la région des lacs de Mazurie, voïvodie de Varmie-Mazurie. Créé en 1977, il couvre une superficie de 536,55 km2.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mammifères
-Cerf élaphe (Cervus elaphus)
+          <t>Mammifères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cerf élaphe (Cervus elaphus)
 Chevreuil (Capreolus capreolus)
 Sanglier (Sus scrofa)
 Lièvre d'Europe (Lepus europaeus)
@@ -536,9 +553,43 @@
  Hermine (Mustela erminea)
 Blaireau européen (Meles meles)
  Castor d'Europe (Castor fiber)
-Vison d'Amérique (Neovison vison)
-Oiseaux
- Pygargue à queue blanche (Haliaeetus albicilla)
+Vison d'Amérique (Neovison vison)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pygargue à queue blanche (Haliaeetus albicilla)
  Balbuzard pêcheur (Pandion haliaetus)
  Aigle pomarin (Clanga pomarina)
  Cigogne noire (Ciconia nigra)
@@ -567,9 +618,43 @@
  Pigeon colombin (Columba oenas)
  Huppe fasciée (Upupa epops)
  Martin-pêcheur d'Europe (Alcedo atthis)
- Cincle plongeur (Cinclus cinclus)
-Insectes
-Machaon (Papilio machaon)
+ Cincle plongeur (Cinclus cinclus)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Machaon (Papilio machaon)
 Morio (Nymphalis antiopa)
 Vulcain (Vanessa atalanta)
 Grand mars changeant (Apatura iris)
@@ -578,31 +663,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Parc_naturel_de_Mazurie</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Parc_naturel_de_Mazurie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Flore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Taxus
 Orchidaceae : Listère cordée (Neottia cordata), Listère à feuilles ovales (Neottia ovata), Sabot de Vénus (Cypripedium calceolus), Dactylorhize de mai (Dactylorhiza majalis), Épipactis des marais (Epipactis palustris), Épipactis pourpre noirâtre (Epipactis atrorubens), Goodyère rampante (Goodyera repens), Néottie nid d'oiseau (Neottia nidus-avis), Racine de corail (Corallorhiza trifida)
@@ -620,9 +707,43 @@
 Anémone sauvage (Anemone sylvestris)
 Campanule de Bologne (Campanula bononiensis)
 Mélitte à feuilles de mélisse (Melittis melissophyllum)
-Sceau de Salomon verticillé (Polygonatum verticillatum)
-Reliques glaciaires et boréales
-Cassandre caliculé (Chamaedaphne calyculata)
+Sceau de Salomon verticillé (Polygonatum verticillatum)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reliques glaciaires et boréales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cassandre caliculé (Chamaedaphne calyculata)
 Linnée boréale (Linnaea borealis)
 Polémoine bleue (Polemonium caeruleum)
 Carex chordorrhiza et Carex vaginata
@@ -632,9 +753,43 @@
 Camarine noire (Empetrum nigrum)
 Scheuchzeria palustris
 Carex limosa
-Vaccinium microcarpum
-Plantes aquatiques
-Cladium mariscus
+Vaccinium microcarpum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_naturel_de_Mazurie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes aquatiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cladium mariscus
 Sparganium natans
 Stuckenia filiformis
 Fontinalis dalecarlica
